--- a/doc/3/50_V4_機能アーキテクチャ/30_V4_設計書_カタログ作成ツール詳細設計書/80_詳細設計書_データカタログ作成ツール_別紙5_DB設計_202303.xlsx
+++ b/doc/3/50_V4_機能アーキテクチャ/30_V4_設計書_カタログ作成ツール詳細設計書/80_詳細設計書_データカタログ作成ツール_別紙5_DB設計_202303.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA6E61-5AF6-4176-A092-DA87781576D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18430" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1396,9 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18"/>
   <cols>
@@ -1416,9 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0DD10D-50A5-42C0-8757-06D9031C2230}">
   <dimension ref="D2:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18"/>
   <cols>
@@ -2846,6 +2842,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010002ECC5740E64E847B54B09632D7DC53A" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0617be47d4a38f962b4e28c2c9b56d74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94a0b324-fff8-47f8-93c2-91e47de8bffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46f47a73faa942e2d2a121376fe753e3" ns2:_="">
     <xsd:import namespace="94a0b324-fff8-47f8-93c2-91e47de8bffb"/>
@@ -2977,15 +2982,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2993,13 +2989,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F52F5F6B-1EB2-49C3-BDFC-3073AECFD2A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F163144-0F58-489B-996E-942B55535C3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7773F01-4902-40D4-B1AF-AB503D242EB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C900650A-26DA-4400-9D84-F8C7DC9BFEC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="94a0b324-fff8-47f8-93c2-91e47de8bffb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16838-464D-4770-B016-5302087E41D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0FCBA6A-8D18-4C17-B00A-B9E07274A7DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94a0b324-fff8-47f8-93c2-91e47de8bffb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>